--- a/lib/nicaragua_csvs_july_december_2015/tangara/N005001008.xlsx
+++ b/lib/nicaragua_csvs_july_december_2015/tangara/N005001008.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/denguetorpedo/lib/nicaragua_csvs_july_december_2015/tangara/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19440" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,10 +204,10 @@
     <t>01/12/2015</t>
   </si>
   <si>
-    <t>17/12/2016</t>
+    <t>10/12/2015</t>
   </si>
   <si>
-    <t>10/12/2015</t>
+    <t>17/12/2015</t>
   </si>
 </sst>
 </file>
@@ -499,16 +504,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -584,6 +589,23 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,26 +641,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,49 +985,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="14"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
@@ -1028,89 +1036,89 @@
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="30" t="s">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="48" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="49"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
@@ -1124,35 +1132,35 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1164,7 +1172,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1211,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
@@ -1223,7 +1231,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
@@ -1243,7 +1251,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
@@ -1263,7 +1271,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
@@ -1283,7 +1291,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1311,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
@@ -1323,7 +1331,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1351,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
@@ -1363,7 +1371,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
@@ -1383,7 +1391,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
@@ -1403,7 +1411,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25" t="s">
         <v>44</v>
       </c>
@@ -1423,7 +1431,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
@@ -1443,7 +1451,7 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
@@ -1463,7 +1471,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25" t="s">
         <v>47</v>
       </c>
@@ -1483,9 +1491,9 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>32</v>
@@ -1503,9 +1511,9 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>48</v>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>32</v>
@@ -1523,7 +1531,7 @@
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -1537,7 +1545,7 @@
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -1551,7 +1559,7 @@
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -1565,7 +1573,7 @@
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -1579,7 +1587,7 @@
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -1593,7 +1601,7 @@
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -1607,7 +1615,7 @@
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="25"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -1621,7 +1629,7 @@
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="25"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -1635,7 +1643,7 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -1649,7 +1657,7 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1663,7 +1671,7 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="25"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1677,7 +1685,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="25"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -1691,7 +1699,7 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -1705,3810 +1713,3804 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="7"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="7"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="7"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="7"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="7"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="7"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="7"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="7"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="7"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="7"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="7"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="7"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="7"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="7"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="7"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="7"/>
       <c r="J102" s="7"/>
     </row>
-    <row r="103" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="7"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="7"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="7"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="7"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="7"/>
       <c r="J107" s="7"/>
     </row>
-    <row r="108" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="7"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="7"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="7"/>
       <c r="J110" s="7"/>
     </row>
-    <row r="111" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="7"/>
       <c r="J111" s="7"/>
     </row>
-    <row r="112" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="7"/>
       <c r="J112" s="7"/>
     </row>
-    <row r="113" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="7"/>
       <c r="J113" s="7"/>
     </row>
-    <row r="114" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="7"/>
       <c r="J114" s="7"/>
     </row>
-    <row r="115" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="7"/>
       <c r="J115" s="7"/>
     </row>
-    <row r="116" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="7"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="7"/>
       <c r="J117" s="7"/>
     </row>
-    <row r="118" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="7"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="7"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="7"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="7"/>
       <c r="J121" s="7"/>
     </row>
-    <row r="122" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="7"/>
       <c r="J122" s="7"/>
     </row>
-    <row r="123" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="7"/>
       <c r="J123" s="7"/>
     </row>
-    <row r="124" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="7"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="7"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="7"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="7"/>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="7"/>
       <c r="J128" s="7"/>
     </row>
-    <row r="129" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="7"/>
       <c r="J129" s="7"/>
     </row>
-    <row r="130" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="7"/>
       <c r="J130" s="7"/>
     </row>
-    <row r="131" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="7"/>
       <c r="J131" s="7"/>
     </row>
-    <row r="132" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="7"/>
       <c r="J132" s="7"/>
     </row>
-    <row r="133" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="7"/>
       <c r="J133" s="7"/>
     </row>
-    <row r="134" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="7"/>
       <c r="J134" s="7"/>
     </row>
-    <row r="135" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="7"/>
       <c r="J135" s="7"/>
     </row>
-    <row r="136" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="7"/>
       <c r="J136" s="7"/>
     </row>
-    <row r="137" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="7"/>
       <c r="J137" s="7"/>
     </row>
-    <row r="138" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="7"/>
       <c r="J138" s="7"/>
     </row>
-    <row r="139" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="7"/>
       <c r="J139" s="7"/>
     </row>
-    <row r="140" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="7"/>
       <c r="J140" s="7"/>
     </row>
-    <row r="141" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="7"/>
       <c r="J141" s="7"/>
     </row>
-    <row r="142" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="7"/>
       <c r="J142" s="7"/>
     </row>
-    <row r="143" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="7"/>
       <c r="J143" s="7"/>
     </row>
-    <row r="144" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="7"/>
       <c r="J144" s="7"/>
     </row>
-    <row r="145" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="7"/>
       <c r="J145" s="7"/>
     </row>
-    <row r="146" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="7"/>
       <c r="J146" s="7"/>
     </row>
-    <row r="147" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="7"/>
       <c r="J147" s="7"/>
     </row>
-    <row r="148" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="7"/>
       <c r="J148" s="7"/>
     </row>
-    <row r="149" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="7"/>
       <c r="J149" s="7"/>
     </row>
-    <row r="150" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="7"/>
       <c r="J150" s="7"/>
     </row>
-    <row r="151" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="7"/>
       <c r="J151" s="7"/>
     </row>
-    <row r="152" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="7"/>
       <c r="J152" s="7"/>
     </row>
-    <row r="153" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="7"/>
       <c r="J153" s="7"/>
     </row>
-    <row r="154" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="7"/>
       <c r="J154" s="7"/>
     </row>
-    <row r="155" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="7"/>
       <c r="J155" s="7"/>
     </row>
-    <row r="156" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="7"/>
       <c r="J156" s="7"/>
     </row>
-    <row r="157" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="7"/>
       <c r="J157" s="7"/>
     </row>
-    <row r="158" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="7"/>
       <c r="J158" s="7"/>
     </row>
-    <row r="159" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C159" s="7"/>
       <c r="J159" s="7"/>
     </row>
-    <row r="160" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C160" s="7"/>
       <c r="J160" s="7"/>
     </row>
-    <row r="161" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="7"/>
       <c r="J161" s="7"/>
     </row>
-    <row r="162" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C162" s="7"/>
       <c r="J162" s="7"/>
     </row>
-    <row r="163" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C163" s="7"/>
       <c r="J163" s="7"/>
     </row>
-    <row r="164" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="7"/>
       <c r="J164" s="7"/>
     </row>
-    <row r="165" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="7"/>
       <c r="J165" s="7"/>
     </row>
-    <row r="166" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C166" s="7"/>
       <c r="J166" s="7"/>
     </row>
-    <row r="167" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="7"/>
       <c r="J167" s="7"/>
     </row>
-    <row r="168" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C168" s="7"/>
       <c r="J168" s="7"/>
     </row>
-    <row r="169" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C169" s="7"/>
       <c r="J169" s="7"/>
     </row>
-    <row r="170" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="7"/>
       <c r="J170" s="7"/>
     </row>
-    <row r="171" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C171" s="7"/>
       <c r="J171" s="7"/>
     </row>
-    <row r="172" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C172" s="7"/>
       <c r="J172" s="7"/>
     </row>
-    <row r="173" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="7"/>
       <c r="J173" s="7"/>
     </row>
-    <row r="174" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="7"/>
       <c r="J174" s="7"/>
     </row>
-    <row r="175" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C175" s="7"/>
       <c r="J175" s="7"/>
     </row>
-    <row r="176" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="7"/>
       <c r="J176" s="7"/>
     </row>
-    <row r="177" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C177" s="7"/>
       <c r="J177" s="7"/>
     </row>
-    <row r="178" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C178" s="7"/>
       <c r="J178" s="7"/>
     </row>
-    <row r="179" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C179" s="7"/>
       <c r="J179" s="7"/>
     </row>
-    <row r="180" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C180" s="7"/>
       <c r="J180" s="7"/>
     </row>
-    <row r="181" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="7"/>
       <c r="J181" s="7"/>
     </row>
-    <row r="182" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="7"/>
       <c r="J182" s="7"/>
     </row>
-    <row r="183" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C183" s="7"/>
       <c r="J183" s="7"/>
     </row>
-    <row r="184" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C184" s="7"/>
       <c r="J184" s="7"/>
     </row>
-    <row r="185" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="7"/>
       <c r="J185" s="7"/>
     </row>
-    <row r="186" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C186" s="7"/>
       <c r="J186" s="7"/>
     </row>
-    <row r="187" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C187" s="7"/>
       <c r="J187" s="7"/>
     </row>
-    <row r="188" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C188" s="7"/>
       <c r="J188" s="7"/>
     </row>
-    <row r="189" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C189" s="7"/>
       <c r="J189" s="7"/>
     </row>
-    <row r="190" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C190" s="7"/>
       <c r="J190" s="7"/>
     </row>
-    <row r="191" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="7"/>
       <c r="J191" s="7"/>
     </row>
-    <row r="192" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C192" s="7"/>
       <c r="J192" s="7"/>
     </row>
-    <row r="193" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C193" s="7"/>
       <c r="J193" s="7"/>
     </row>
-    <row r="194" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C194" s="7"/>
       <c r="J194" s="7"/>
     </row>
-    <row r="195" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C195" s="7"/>
       <c r="J195" s="7"/>
     </row>
-    <row r="196" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C196" s="7"/>
       <c r="J196" s="7"/>
     </row>
-    <row r="197" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C197" s="7"/>
       <c r="J197" s="7"/>
     </row>
-    <row r="198" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C198" s="7"/>
       <c r="J198" s="7"/>
     </row>
-    <row r="199" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C199" s="7"/>
       <c r="J199" s="7"/>
     </row>
-    <row r="200" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="7"/>
       <c r="J200" s="7"/>
     </row>
-    <row r="201" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C201" s="7"/>
       <c r="J201" s="7"/>
     </row>
-    <row r="202" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C202" s="7"/>
       <c r="J202" s="7"/>
     </row>
-    <row r="203" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C203" s="7"/>
       <c r="J203" s="7"/>
     </row>
-    <row r="204" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C204" s="7"/>
       <c r="J204" s="7"/>
     </row>
-    <row r="205" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C205" s="7"/>
       <c r="J205" s="7"/>
     </row>
-    <row r="206" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C206" s="7"/>
       <c r="J206" s="7"/>
     </row>
-    <row r="207" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C207" s="7"/>
       <c r="J207" s="7"/>
     </row>
-    <row r="208" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C208" s="7"/>
       <c r="J208" s="7"/>
     </row>
-    <row r="209" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C209" s="7"/>
       <c r="J209" s="7"/>
     </row>
-    <row r="210" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C210" s="7"/>
       <c r="J210" s="7"/>
     </row>
-    <row r="211" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C211" s="7"/>
       <c r="J211" s="7"/>
     </row>
-    <row r="212" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C212" s="7"/>
       <c r="J212" s="7"/>
     </row>
-    <row r="213" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C213" s="7"/>
       <c r="J213" s="7"/>
     </row>
-    <row r="214" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C214" s="7"/>
       <c r="J214" s="7"/>
     </row>
-    <row r="215" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C215" s="7"/>
       <c r="J215" s="7"/>
     </row>
-    <row r="216" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C216" s="7"/>
       <c r="J216" s="7"/>
     </row>
-    <row r="217" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C217" s="7"/>
       <c r="J217" s="7"/>
     </row>
-    <row r="218" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C218" s="7"/>
       <c r="J218" s="7"/>
     </row>
-    <row r="219" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C219" s="7"/>
       <c r="J219" s="7"/>
     </row>
-    <row r="220" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C220" s="7"/>
       <c r="J220" s="7"/>
     </row>
-    <row r="221" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C221" s="7"/>
       <c r="J221" s="7"/>
     </row>
-    <row r="222" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C222" s="7"/>
       <c r="J222" s="7"/>
     </row>
-    <row r="223" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C223" s="7"/>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C224" s="7"/>
       <c r="J224" s="7"/>
     </row>
-    <row r="225" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C225" s="7"/>
       <c r="J225" s="7"/>
     </row>
-    <row r="226" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C226" s="7"/>
       <c r="J226" s="7"/>
     </row>
-    <row r="227" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C227" s="7"/>
       <c r="J227" s="7"/>
     </row>
-    <row r="228" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C228" s="7"/>
       <c r="J228" s="7"/>
     </row>
-    <row r="229" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C229" s="7"/>
       <c r="J229" s="7"/>
     </row>
-    <row r="230" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C230" s="7"/>
       <c r="J230" s="7"/>
     </row>
-    <row r="231" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C231" s="7"/>
       <c r="J231" s="7"/>
     </row>
-    <row r="232" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C232" s="7"/>
       <c r="J232" s="7"/>
     </row>
-    <row r="233" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C233" s="7"/>
       <c r="J233" s="7"/>
     </row>
-    <row r="234" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C234" s="7"/>
       <c r="J234" s="7"/>
     </row>
-    <row r="235" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C235" s="7"/>
       <c r="J235" s="7"/>
     </row>
-    <row r="236" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C236" s="7"/>
       <c r="J236" s="7"/>
     </row>
-    <row r="237" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C237" s="7"/>
       <c r="J237" s="7"/>
     </row>
-    <row r="238" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C238" s="7"/>
       <c r="J238" s="7"/>
     </row>
-    <row r="239" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C239" s="7"/>
       <c r="J239" s="7"/>
     </row>
-    <row r="240" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C240" s="7"/>
       <c r="J240" s="7"/>
     </row>
-    <row r="241" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C241" s="7"/>
       <c r="J241" s="7"/>
     </row>
-    <row r="242" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C242" s="7"/>
       <c r="J242" s="7"/>
     </row>
-    <row r="243" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C243" s="7"/>
       <c r="J243" s="7"/>
     </row>
-    <row r="244" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C244" s="7"/>
       <c r="J244" s="7"/>
     </row>
-    <row r="245" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C245" s="7"/>
       <c r="J245" s="7"/>
     </row>
-    <row r="246" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C246" s="7"/>
       <c r="J246" s="7"/>
     </row>
-    <row r="247" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C247" s="7"/>
       <c r="J247" s="7"/>
     </row>
-    <row r="248" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C248" s="7"/>
       <c r="J248" s="7"/>
     </row>
-    <row r="249" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C249" s="7"/>
       <c r="J249" s="7"/>
     </row>
-    <row r="250" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C250" s="7"/>
       <c r="J250" s="7"/>
     </row>
-    <row r="251" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C251" s="7"/>
       <c r="J251" s="7"/>
     </row>
-    <row r="252" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C252" s="7"/>
       <c r="J252" s="7"/>
     </row>
-    <row r="253" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C253" s="7"/>
       <c r="J253" s="7"/>
     </row>
-    <row r="254" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C254" s="7"/>
       <c r="J254" s="7"/>
     </row>
-    <row r="255" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C255" s="7"/>
       <c r="J255" s="7"/>
     </row>
-    <row r="256" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C256" s="7"/>
       <c r="J256" s="7"/>
     </row>
-    <row r="257" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C257" s="7"/>
       <c r="J257" s="7"/>
     </row>
-    <row r="258" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C258" s="7"/>
       <c r="J258" s="7"/>
     </row>
-    <row r="259" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C259" s="7"/>
       <c r="J259" s="7"/>
     </row>
-    <row r="260" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C260" s="7"/>
       <c r="J260" s="7"/>
     </row>
-    <row r="261" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C261" s="7"/>
       <c r="J261" s="7"/>
     </row>
-    <row r="262" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C262" s="7"/>
       <c r="J262" s="7"/>
     </row>
-    <row r="263" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C263" s="7"/>
       <c r="J263" s="7"/>
     </row>
-    <row r="264" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C264" s="7"/>
       <c r="J264" s="7"/>
     </row>
-    <row r="265" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C265" s="7"/>
       <c r="J265" s="7"/>
     </row>
-    <row r="266" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C266" s="7"/>
       <c r="J266" s="7"/>
     </row>
-    <row r="267" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C267" s="7"/>
       <c r="J267" s="7"/>
     </row>
-    <row r="268" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C268" s="7"/>
       <c r="J268" s="7"/>
     </row>
-    <row r="269" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C269" s="7"/>
       <c r="J269" s="7"/>
     </row>
-    <row r="270" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C270" s="7"/>
       <c r="J270" s="7"/>
     </row>
-    <row r="271" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C271" s="7"/>
       <c r="J271" s="7"/>
     </row>
-    <row r="272" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C272" s="7"/>
       <c r="J272" s="7"/>
     </row>
-    <row r="273" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C273" s="7"/>
       <c r="J273" s="7"/>
     </row>
-    <row r="274" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C274" s="7"/>
       <c r="J274" s="7"/>
     </row>
-    <row r="275" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C275" s="7"/>
       <c r="J275" s="7"/>
     </row>
-    <row r="276" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C276" s="7"/>
       <c r="J276" s="7"/>
     </row>
-    <row r="277" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C277" s="7"/>
       <c r="J277" s="7"/>
     </row>
-    <row r="278" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C278" s="7"/>
       <c r="J278" s="7"/>
     </row>
-    <row r="279" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C279" s="7"/>
       <c r="J279" s="7"/>
     </row>
-    <row r="280" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C280" s="7"/>
       <c r="J280" s="7"/>
     </row>
-    <row r="281" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C281" s="7"/>
       <c r="J281" s="7"/>
     </row>
-    <row r="282" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C282" s="7"/>
       <c r="J282" s="7"/>
     </row>
-    <row r="283" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C283" s="7"/>
       <c r="J283" s="7"/>
     </row>
-    <row r="284" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C284" s="7"/>
       <c r="J284" s="7"/>
     </row>
-    <row r="285" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C285" s="7"/>
       <c r="J285" s="7"/>
     </row>
-    <row r="286" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C286" s="7"/>
       <c r="J286" s="7"/>
     </row>
-    <row r="287" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C287" s="7"/>
       <c r="J287" s="7"/>
     </row>
-    <row r="288" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C288" s="7"/>
       <c r="J288" s="7"/>
     </row>
-    <row r="289" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C289" s="7"/>
       <c r="J289" s="7"/>
     </row>
-    <row r="290" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C290" s="7"/>
       <c r="J290" s="7"/>
     </row>
-    <row r="291" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C291" s="7"/>
       <c r="J291" s="7"/>
     </row>
-    <row r="292" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C292" s="7"/>
       <c r="J292" s="7"/>
     </row>
-    <row r="293" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C293" s="7"/>
       <c r="J293" s="7"/>
     </row>
-    <row r="294" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C294" s="7"/>
       <c r="J294" s="7"/>
     </row>
-    <row r="295" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C295" s="7"/>
       <c r="J295" s="7"/>
     </row>
-    <row r="296" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C296" s="7"/>
       <c r="J296" s="7"/>
     </row>
-    <row r="297" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C297" s="7"/>
       <c r="J297" s="7"/>
     </row>
-    <row r="298" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C298" s="7"/>
       <c r="J298" s="7"/>
     </row>
-    <row r="299" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C299" s="7"/>
       <c r="J299" s="7"/>
     </row>
-    <row r="300" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C300" s="7"/>
       <c r="J300" s="7"/>
     </row>
-    <row r="301" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C301" s="7"/>
       <c r="J301" s="7"/>
     </row>
-    <row r="302" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C302" s="7"/>
       <c r="J302" s="7"/>
     </row>
-    <row r="303" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C303" s="7"/>
       <c r="J303" s="7"/>
     </row>
-    <row r="304" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C304" s="7"/>
       <c r="J304" s="7"/>
     </row>
-    <row r="305" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C305" s="7"/>
       <c r="J305" s="7"/>
     </row>
-    <row r="306" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C306" s="7"/>
       <c r="J306" s="7"/>
     </row>
-    <row r="307" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C307" s="7"/>
       <c r="J307" s="7"/>
     </row>
-    <row r="308" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C308" s="7"/>
       <c r="J308" s="7"/>
     </row>
-    <row r="309" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C309" s="7"/>
       <c r="J309" s="7"/>
     </row>
-    <row r="310" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C310" s="7"/>
       <c r="J310" s="7"/>
     </row>
-    <row r="311" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C311" s="7"/>
       <c r="J311" s="7"/>
     </row>
-    <row r="312" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C312" s="7"/>
       <c r="J312" s="7"/>
     </row>
-    <row r="313" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C313" s="7"/>
       <c r="J313" s="7"/>
     </row>
-    <row r="314" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C314" s="7"/>
       <c r="J314" s="7"/>
     </row>
-    <row r="315" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C315" s="7"/>
       <c r="J315" s="7"/>
     </row>
-    <row r="316" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C316" s="7"/>
       <c r="J316" s="7"/>
     </row>
-    <row r="317" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C317" s="7"/>
       <c r="J317" s="7"/>
     </row>
-    <row r="318" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C318" s="7"/>
       <c r="J318" s="7"/>
     </row>
-    <row r="319" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C319" s="7"/>
       <c r="J319" s="7"/>
     </row>
-    <row r="320" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C320" s="7"/>
       <c r="J320" s="7"/>
     </row>
-    <row r="321" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C321" s="7"/>
       <c r="J321" s="7"/>
     </row>
-    <row r="322" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C322" s="7"/>
       <c r="J322" s="7"/>
     </row>
-    <row r="323" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C323" s="7"/>
       <c r="J323" s="7"/>
     </row>
-    <row r="324" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C324" s="7"/>
       <c r="J324" s="7"/>
     </row>
-    <row r="325" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C325" s="7"/>
       <c r="J325" s="7"/>
     </row>
-    <row r="326" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C326" s="7"/>
       <c r="J326" s="7"/>
     </row>
-    <row r="327" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C327" s="7"/>
       <c r="J327" s="7"/>
     </row>
-    <row r="328" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C328" s="7"/>
       <c r="J328" s="7"/>
     </row>
-    <row r="329" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C329" s="7"/>
       <c r="J329" s="7"/>
     </row>
-    <row r="330" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C330" s="7"/>
       <c r="J330" s="7"/>
     </row>
-    <row r="331" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C331" s="7"/>
       <c r="J331" s="7"/>
     </row>
-    <row r="332" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C332" s="7"/>
       <c r="J332" s="7"/>
     </row>
-    <row r="333" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C333" s="7"/>
       <c r="J333" s="7"/>
     </row>
-    <row r="334" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C334" s="7"/>
       <c r="J334" s="7"/>
     </row>
-    <row r="335" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C335" s="7"/>
       <c r="J335" s="7"/>
     </row>
-    <row r="336" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C336" s="7"/>
       <c r="J336" s="7"/>
     </row>
-    <row r="337" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C337" s="7"/>
       <c r="J337" s="7"/>
     </row>
-    <row r="338" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C338" s="7"/>
       <c r="J338" s="7"/>
     </row>
-    <row r="339" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C339" s="7"/>
       <c r="J339" s="7"/>
     </row>
-    <row r="340" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C340" s="7"/>
       <c r="J340" s="7"/>
     </row>
-    <row r="341" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C341" s="7"/>
       <c r="J341" s="7"/>
     </row>
-    <row r="342" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C342" s="7"/>
       <c r="J342" s="7"/>
     </row>
-    <row r="343" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C343" s="7"/>
       <c r="J343" s="7"/>
     </row>
-    <row r="344" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C344" s="7"/>
       <c r="J344" s="7"/>
     </row>
-    <row r="345" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C345" s="7"/>
       <c r="J345" s="7"/>
     </row>
-    <row r="346" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C346" s="7"/>
       <c r="J346" s="7"/>
     </row>
-    <row r="347" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C347" s="7"/>
       <c r="J347" s="7"/>
     </row>
-    <row r="348" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C348" s="7"/>
       <c r="J348" s="7"/>
     </row>
-    <row r="349" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C349" s="7"/>
       <c r="J349" s="7"/>
     </row>
-    <row r="350" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C350" s="7"/>
       <c r="J350" s="7"/>
     </row>
-    <row r="351" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C351" s="7"/>
       <c r="J351" s="7"/>
     </row>
-    <row r="352" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C352" s="7"/>
       <c r="J352" s="7"/>
     </row>
-    <row r="353" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C353" s="7"/>
       <c r="J353" s="7"/>
     </row>
-    <row r="354" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C354" s="7"/>
       <c r="J354" s="7"/>
     </row>
-    <row r="355" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C355" s="7"/>
       <c r="J355" s="7"/>
     </row>
-    <row r="356" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C356" s="7"/>
       <c r="J356" s="7"/>
     </row>
-    <row r="357" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C357" s="7"/>
       <c r="J357" s="7"/>
     </row>
-    <row r="358" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C358" s="7"/>
       <c r="J358" s="7"/>
     </row>
-    <row r="359" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C359" s="7"/>
       <c r="J359" s="7"/>
     </row>
-    <row r="360" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C360" s="7"/>
       <c r="J360" s="7"/>
     </row>
-    <row r="361" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C361" s="7"/>
       <c r="J361" s="7"/>
     </row>
-    <row r="362" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C362" s="7"/>
       <c r="J362" s="7"/>
     </row>
-    <row r="363" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C363" s="7"/>
       <c r="J363" s="7"/>
     </row>
-    <row r="364" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C364" s="7"/>
       <c r="J364" s="7"/>
     </row>
-    <row r="365" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C365" s="7"/>
       <c r="J365" s="7"/>
     </row>
-    <row r="366" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C366" s="7"/>
       <c r="J366" s="7"/>
     </row>
-    <row r="367" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C367" s="7"/>
       <c r="J367" s="7"/>
     </row>
-    <row r="368" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C368" s="7"/>
       <c r="J368" s="7"/>
     </row>
-    <row r="369" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C369" s="7"/>
       <c r="J369" s="7"/>
     </row>
-    <row r="370" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C370" s="7"/>
       <c r="J370" s="7"/>
     </row>
-    <row r="371" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C371" s="7"/>
       <c r="J371" s="7"/>
     </row>
-    <row r="372" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C372" s="7"/>
       <c r="J372" s="7"/>
     </row>
-    <row r="373" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C373" s="7"/>
       <c r="J373" s="7"/>
     </row>
-    <row r="374" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C374" s="7"/>
       <c r="J374" s="7"/>
     </row>
-    <row r="375" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C375" s="7"/>
       <c r="J375" s="7"/>
     </row>
-    <row r="376" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C376" s="7"/>
       <c r="J376" s="7"/>
     </row>
-    <row r="377" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C377" s="7"/>
       <c r="J377" s="7"/>
     </row>
-    <row r="378" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C378" s="7"/>
       <c r="J378" s="7"/>
     </row>
-    <row r="379" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C379" s="7"/>
       <c r="J379" s="7"/>
     </row>
-    <row r="380" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C380" s="7"/>
       <c r="J380" s="7"/>
     </row>
-    <row r="381" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C381" s="7"/>
       <c r="J381" s="7"/>
     </row>
-    <row r="382" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C382" s="7"/>
       <c r="J382" s="7"/>
     </row>
-    <row r="383" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C383" s="7"/>
       <c r="J383" s="7"/>
     </row>
-    <row r="384" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C384" s="7"/>
       <c r="J384" s="7"/>
     </row>
-    <row r="385" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C385" s="7"/>
       <c r="J385" s="7"/>
     </row>
-    <row r="386" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C386" s="7"/>
       <c r="J386" s="7"/>
     </row>
-    <row r="387" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C387" s="7"/>
       <c r="J387" s="7"/>
     </row>
-    <row r="388" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C388" s="7"/>
       <c r="J388" s="7"/>
     </row>
-    <row r="389" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C389" s="7"/>
       <c r="J389" s="7"/>
     </row>
-    <row r="390" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C390" s="7"/>
       <c r="J390" s="7"/>
     </row>
-    <row r="391" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C391" s="7"/>
       <c r="J391" s="7"/>
     </row>
-    <row r="392" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C392" s="7"/>
       <c r="J392" s="7"/>
     </row>
-    <row r="393" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C393" s="7"/>
       <c r="J393" s="7"/>
     </row>
-    <row r="394" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C394" s="7"/>
       <c r="J394" s="7"/>
     </row>
-    <row r="395" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C395" s="7"/>
       <c r="J395" s="7"/>
     </row>
-    <row r="396" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C396" s="7"/>
       <c r="J396" s="7"/>
     </row>
-    <row r="397" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C397" s="7"/>
       <c r="J397" s="7"/>
     </row>
-    <row r="398" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C398" s="7"/>
       <c r="J398" s="7"/>
     </row>
-    <row r="399" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C399" s="7"/>
       <c r="J399" s="7"/>
     </row>
-    <row r="400" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C400" s="7"/>
       <c r="J400" s="7"/>
     </row>
-    <row r="401" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C401" s="7"/>
       <c r="J401" s="7"/>
     </row>
-    <row r="402" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C402" s="7"/>
       <c r="J402" s="7"/>
     </row>
-    <row r="403" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C403" s="7"/>
       <c r="J403" s="7"/>
     </row>
-    <row r="404" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C404" s="7"/>
       <c r="J404" s="7"/>
     </row>
-    <row r="405" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C405" s="7"/>
       <c r="J405" s="7"/>
     </row>
-    <row r="406" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C406" s="7"/>
       <c r="J406" s="7"/>
     </row>
-    <row r="407" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C407" s="7"/>
       <c r="J407" s="7"/>
     </row>
-    <row r="408" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C408" s="7"/>
       <c r="J408" s="7"/>
     </row>
-    <row r="409" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C409" s="7"/>
       <c r="J409" s="7"/>
     </row>
-    <row r="410" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C410" s="7"/>
       <c r="J410" s="7"/>
     </row>
-    <row r="411" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C411" s="7"/>
       <c r="J411" s="7"/>
     </row>
-    <row r="412" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C412" s="7"/>
       <c r="J412" s="7"/>
     </row>
-    <row r="413" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C413" s="7"/>
       <c r="J413" s="7"/>
     </row>
-    <row r="414" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C414" s="7"/>
       <c r="J414" s="7"/>
     </row>
-    <row r="415" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C415" s="7"/>
       <c r="J415" s="7"/>
     </row>
-    <row r="416" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C416" s="7"/>
       <c r="J416" s="7"/>
     </row>
-    <row r="417" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C417" s="7"/>
       <c r="J417" s="7"/>
     </row>
-    <row r="418" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C418" s="7"/>
       <c r="J418" s="7"/>
     </row>
-    <row r="419" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C419" s="7"/>
       <c r="J419" s="7"/>
     </row>
-    <row r="420" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C420" s="7"/>
       <c r="J420" s="7"/>
     </row>
-    <row r="421" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C421" s="7"/>
       <c r="J421" s="7"/>
     </row>
-    <row r="422" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C422" s="7"/>
       <c r="J422" s="7"/>
     </row>
-    <row r="423" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C423" s="7"/>
       <c r="J423" s="7"/>
     </row>
-    <row r="424" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C424" s="7"/>
       <c r="J424" s="7"/>
     </row>
-    <row r="425" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C425" s="7"/>
       <c r="J425" s="7"/>
     </row>
-    <row r="426" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C426" s="7"/>
       <c r="J426" s="7"/>
     </row>
-    <row r="427" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C427" s="7"/>
       <c r="J427" s="7"/>
     </row>
-    <row r="428" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C428" s="7"/>
       <c r="J428" s="7"/>
     </row>
-    <row r="429" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C429" s="7"/>
       <c r="J429" s="7"/>
     </row>
-    <row r="430" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C430" s="7"/>
       <c r="J430" s="7"/>
     </row>
-    <row r="431" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C431" s="7"/>
       <c r="J431" s="7"/>
     </row>
-    <row r="432" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C432" s="7"/>
       <c r="J432" s="7"/>
     </row>
-    <row r="433" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C433" s="7"/>
       <c r="J433" s="7"/>
     </row>
-    <row r="434" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C434" s="7"/>
       <c r="J434" s="7"/>
     </row>
-    <row r="435" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C435" s="7"/>
       <c r="J435" s="7"/>
     </row>
-    <row r="436" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C436" s="7"/>
       <c r="J436" s="7"/>
     </row>
-    <row r="437" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C437" s="7"/>
       <c r="J437" s="7"/>
     </row>
-    <row r="438" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C438" s="7"/>
       <c r="J438" s="7"/>
     </row>
-    <row r="439" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C439" s="7"/>
       <c r="J439" s="7"/>
     </row>
-    <row r="440" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C440" s="7"/>
       <c r="J440" s="7"/>
     </row>
-    <row r="441" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C441" s="7"/>
       <c r="J441" s="7"/>
     </row>
-    <row r="442" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C442" s="7"/>
       <c r="J442" s="7"/>
     </row>
-    <row r="443" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C443" s="7"/>
       <c r="J443" s="7"/>
     </row>
-    <row r="444" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C444" s="7"/>
       <c r="J444" s="7"/>
     </row>
-    <row r="445" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C445" s="7"/>
       <c r="J445" s="7"/>
     </row>
-    <row r="446" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C446" s="7"/>
       <c r="J446" s="7"/>
     </row>
-    <row r="447" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C447" s="7"/>
       <c r="J447" s="7"/>
     </row>
-    <row r="448" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C448" s="7"/>
       <c r="J448" s="7"/>
     </row>
-    <row r="449" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C449" s="7"/>
       <c r="J449" s="7"/>
     </row>
-    <row r="450" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C450" s="7"/>
       <c r="J450" s="7"/>
     </row>
-    <row r="451" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C451" s="7"/>
       <c r="J451" s="7"/>
     </row>
-    <row r="452" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C452" s="7"/>
       <c r="J452" s="7"/>
     </row>
-    <row r="453" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C453" s="7"/>
       <c r="J453" s="7"/>
     </row>
-    <row r="454" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C454" s="7"/>
       <c r="J454" s="7"/>
     </row>
-    <row r="455" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C455" s="7"/>
       <c r="J455" s="7"/>
     </row>
-    <row r="456" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C456" s="7"/>
       <c r="J456" s="7"/>
     </row>
-    <row r="457" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C457" s="7"/>
       <c r="J457" s="7"/>
     </row>
-    <row r="458" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C458" s="7"/>
       <c r="J458" s="7"/>
     </row>
-    <row r="459" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C459" s="7"/>
       <c r="J459" s="7"/>
     </row>
-    <row r="460" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C460" s="7"/>
       <c r="J460" s="7"/>
     </row>
-    <row r="461" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C461" s="7"/>
       <c r="J461" s="7"/>
     </row>
-    <row r="462" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C462" s="7"/>
       <c r="J462" s="7"/>
     </row>
-    <row r="463" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C463" s="7"/>
       <c r="J463" s="7"/>
     </row>
-    <row r="464" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C464" s="7"/>
       <c r="J464" s="7"/>
     </row>
-    <row r="465" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C465" s="7"/>
       <c r="J465" s="7"/>
     </row>
-    <row r="466" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C466" s="7"/>
       <c r="J466" s="7"/>
     </row>
-    <row r="467" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C467" s="7"/>
       <c r="J467" s="7"/>
     </row>
-    <row r="468" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C468" s="7"/>
       <c r="J468" s="7"/>
     </row>
-    <row r="469" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C469" s="7"/>
       <c r="J469" s="7"/>
     </row>
-    <row r="470" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C470" s="7"/>
       <c r="J470" s="7"/>
     </row>
-    <row r="471" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C471" s="7"/>
       <c r="J471" s="7"/>
     </row>
-    <row r="472" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C472" s="7"/>
       <c r="J472" s="7"/>
     </row>
-    <row r="473" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C473" s="7"/>
       <c r="J473" s="7"/>
     </row>
-    <row r="474" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C474" s="7"/>
       <c r="J474" s="7"/>
     </row>
-    <row r="475" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C475" s="7"/>
       <c r="J475" s="7"/>
     </row>
-    <row r="476" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C476" s="7"/>
       <c r="J476" s="7"/>
     </row>
-    <row r="477" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C477" s="7"/>
       <c r="J477" s="7"/>
     </row>
-    <row r="478" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C478" s="7"/>
       <c r="J478" s="7"/>
     </row>
-    <row r="479" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C479" s="7"/>
       <c r="J479" s="7"/>
     </row>
-    <row r="480" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C480" s="7"/>
       <c r="J480" s="7"/>
     </row>
-    <row r="481" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C481" s="7"/>
       <c r="J481" s="7"/>
     </row>
-    <row r="482" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C482" s="7"/>
       <c r="J482" s="7"/>
     </row>
-    <row r="483" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C483" s="7"/>
       <c r="J483" s="7"/>
     </row>
-    <row r="484" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C484" s="7"/>
       <c r="J484" s="7"/>
     </row>
-    <row r="485" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C485" s="7"/>
       <c r="J485" s="7"/>
     </row>
-    <row r="486" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C486" s="7"/>
       <c r="J486" s="7"/>
     </row>
-    <row r="487" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C487" s="7"/>
       <c r="J487" s="7"/>
     </row>
-    <row r="488" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C488" s="7"/>
       <c r="J488" s="7"/>
     </row>
-    <row r="489" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C489" s="7"/>
       <c r="J489" s="7"/>
     </row>
-    <row r="490" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C490" s="7"/>
       <c r="J490" s="7"/>
     </row>
-    <row r="491" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C491" s="7"/>
       <c r="J491" s="7"/>
     </row>
-    <row r="492" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C492" s="7"/>
       <c r="J492" s="7"/>
     </row>
-    <row r="493" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C493" s="7"/>
       <c r="J493" s="7"/>
     </row>
-    <row r="494" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C494" s="7"/>
       <c r="J494" s="7"/>
     </row>
-    <row r="495" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C495" s="7"/>
       <c r="J495" s="7"/>
     </row>
-    <row r="496" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C496" s="7"/>
       <c r="J496" s="7"/>
     </row>
-    <row r="497" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C497" s="7"/>
       <c r="J497" s="7"/>
     </row>
-    <row r="498" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C498" s="7"/>
       <c r="J498" s="7"/>
     </row>
-    <row r="499" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C499" s="7"/>
       <c r="J499" s="7"/>
     </row>
-    <row r="500" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C500" s="7"/>
       <c r="J500" s="7"/>
     </row>
-    <row r="501" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C501" s="7"/>
       <c r="J501" s="7"/>
     </row>
-    <row r="502" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C502" s="7"/>
       <c r="J502" s="7"/>
     </row>
-    <row r="503" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C503" s="7"/>
       <c r="J503" s="7"/>
     </row>
-    <row r="504" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C504" s="7"/>
       <c r="J504" s="7"/>
     </row>
-    <row r="505" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C505" s="7"/>
       <c r="J505" s="7"/>
     </row>
-    <row r="506" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C506" s="7"/>
       <c r="J506" s="7"/>
     </row>
-    <row r="507" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C507" s="7"/>
       <c r="J507" s="7"/>
     </row>
-    <row r="508" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C508" s="7"/>
       <c r="J508" s="7"/>
     </row>
-    <row r="509" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C509" s="7"/>
       <c r="J509" s="7"/>
     </row>
-    <row r="510" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C510" s="7"/>
       <c r="J510" s="7"/>
     </row>
-    <row r="511" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C511" s="7"/>
       <c r="J511" s="7"/>
     </row>
-    <row r="512" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C512" s="7"/>
       <c r="J512" s="7"/>
     </row>
-    <row r="513" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C513" s="7"/>
       <c r="J513" s="7"/>
     </row>
-    <row r="514" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C514" s="7"/>
       <c r="J514" s="7"/>
     </row>
-    <row r="515" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C515" s="7"/>
       <c r="J515" s="7"/>
     </row>
-    <row r="516" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C516" s="7"/>
       <c r="J516" s="7"/>
     </row>
-    <row r="517" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C517" s="7"/>
       <c r="J517" s="7"/>
     </row>
-    <row r="518" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C518" s="7"/>
       <c r="J518" s="7"/>
     </row>
-    <row r="519" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C519" s="7"/>
       <c r="J519" s="7"/>
     </row>
-    <row r="520" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C520" s="7"/>
       <c r="J520" s="7"/>
     </row>
-    <row r="521" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C521" s="7"/>
       <c r="J521" s="7"/>
     </row>
-    <row r="522" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C522" s="7"/>
       <c r="J522" s="7"/>
     </row>
-    <row r="523" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C523" s="7"/>
       <c r="J523" s="7"/>
     </row>
-    <row r="524" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C524" s="7"/>
       <c r="J524" s="7"/>
     </row>
-    <row r="525" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C525" s="7"/>
       <c r="J525" s="7"/>
     </row>
-    <row r="526" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C526" s="7"/>
       <c r="J526" s="7"/>
     </row>
-    <row r="527" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C527" s="7"/>
       <c r="J527" s="7"/>
     </row>
-    <row r="528" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C528" s="7"/>
       <c r="J528" s="7"/>
     </row>
-    <row r="529" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C529" s="7"/>
       <c r="J529" s="7"/>
     </row>
-    <row r="530" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C530" s="7"/>
       <c r="J530" s="7"/>
     </row>
-    <row r="531" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C531" s="7"/>
       <c r="J531" s="7"/>
     </row>
-    <row r="532" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C532" s="7"/>
       <c r="J532" s="7"/>
     </row>
-    <row r="533" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C533" s="7"/>
       <c r="J533" s="7"/>
     </row>
-    <row r="534" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C534" s="7"/>
       <c r="J534" s="7"/>
     </row>
-    <row r="535" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C535" s="7"/>
       <c r="J535" s="7"/>
     </row>
-    <row r="536" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C536" s="7"/>
       <c r="J536" s="7"/>
     </row>
-    <row r="537" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C537" s="7"/>
       <c r="J537" s="7"/>
     </row>
-    <row r="538" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C538" s="7"/>
       <c r="J538" s="7"/>
     </row>
-    <row r="539" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C539" s="7"/>
       <c r="J539" s="7"/>
     </row>
-    <row r="540" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C540" s="7"/>
       <c r="J540" s="7"/>
     </row>
-    <row r="541" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C541" s="7"/>
       <c r="J541" s="7"/>
     </row>
-    <row r="542" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C542" s="7"/>
       <c r="J542" s="7"/>
     </row>
-    <row r="543" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C543" s="7"/>
       <c r="J543" s="7"/>
     </row>
-    <row r="544" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C544" s="7"/>
       <c r="J544" s="7"/>
     </row>
-    <row r="545" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C545" s="7"/>
       <c r="J545" s="7"/>
     </row>
-    <row r="546" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C546" s="7"/>
       <c r="J546" s="7"/>
     </row>
-    <row r="547" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C547" s="7"/>
       <c r="J547" s="7"/>
     </row>
-    <row r="548" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C548" s="7"/>
       <c r="J548" s="7"/>
     </row>
-    <row r="549" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C549" s="7"/>
       <c r="J549" s="7"/>
     </row>
-    <row r="550" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C550" s="7"/>
       <c r="J550" s="7"/>
     </row>
-    <row r="551" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C551" s="7"/>
       <c r="J551" s="7"/>
     </row>
-    <row r="552" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C552" s="7"/>
       <c r="J552" s="7"/>
     </row>
-    <row r="553" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C553" s="7"/>
       <c r="J553" s="7"/>
     </row>
-    <row r="554" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C554" s="7"/>
       <c r="J554" s="7"/>
     </row>
-    <row r="555" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C555" s="7"/>
       <c r="J555" s="7"/>
     </row>
-    <row r="556" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C556" s="7"/>
       <c r="J556" s="7"/>
     </row>
-    <row r="557" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C557" s="7"/>
       <c r="J557" s="7"/>
     </row>
-    <row r="558" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C558" s="7"/>
       <c r="J558" s="7"/>
     </row>
-    <row r="559" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C559" s="7"/>
       <c r="J559" s="7"/>
     </row>
-    <row r="560" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C560" s="7"/>
       <c r="J560" s="7"/>
     </row>
-    <row r="561" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C561" s="7"/>
       <c r="J561" s="7"/>
     </row>
-    <row r="562" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C562" s="7"/>
       <c r="J562" s="7"/>
     </row>
-    <row r="563" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C563" s="7"/>
       <c r="J563" s="7"/>
     </row>
-    <row r="564" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C564" s="7"/>
       <c r="J564" s="7"/>
     </row>
-    <row r="565" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C565" s="7"/>
       <c r="J565" s="7"/>
     </row>
-    <row r="566" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C566" s="7"/>
       <c r="J566" s="7"/>
     </row>
-    <row r="567" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C567" s="7"/>
       <c r="J567" s="7"/>
     </row>
-    <row r="568" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C568" s="7"/>
       <c r="J568" s="7"/>
     </row>
-    <row r="569" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C569" s="7"/>
       <c r="J569" s="7"/>
     </row>
-    <row r="570" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C570" s="7"/>
       <c r="J570" s="7"/>
     </row>
-    <row r="571" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C571" s="7"/>
       <c r="J571" s="7"/>
     </row>
-    <row r="572" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C572" s="7"/>
       <c r="J572" s="7"/>
     </row>
-    <row r="573" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C573" s="7"/>
       <c r="J573" s="7"/>
     </row>
-    <row r="574" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C574" s="7"/>
       <c r="J574" s="7"/>
     </row>
-    <row r="575" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C575" s="7"/>
       <c r="J575" s="7"/>
     </row>
-    <row r="576" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C576" s="7"/>
       <c r="J576" s="7"/>
     </row>
-    <row r="577" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C577" s="7"/>
       <c r="J577" s="7"/>
     </row>
-    <row r="578" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C578" s="7"/>
       <c r="J578" s="7"/>
     </row>
-    <row r="579" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C579" s="7"/>
       <c r="J579" s="7"/>
     </row>
-    <row r="580" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C580" s="7"/>
       <c r="J580" s="7"/>
     </row>
-    <row r="581" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C581" s="7"/>
       <c r="J581" s="7"/>
     </row>
-    <row r="582" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C582" s="7"/>
       <c r="J582" s="7"/>
     </row>
-    <row r="583" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C583" s="7"/>
       <c r="J583" s="7"/>
     </row>
-    <row r="584" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C584" s="7"/>
       <c r="J584" s="7"/>
     </row>
-    <row r="585" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C585" s="7"/>
       <c r="J585" s="7"/>
     </row>
-    <row r="586" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C586" s="7"/>
       <c r="J586" s="7"/>
     </row>
-    <row r="587" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C587" s="7"/>
       <c r="J587" s="7"/>
     </row>
-    <row r="588" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C588" s="7"/>
       <c r="J588" s="7"/>
     </row>
-    <row r="589" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C589" s="7"/>
       <c r="J589" s="7"/>
     </row>
-    <row r="590" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C590" s="7"/>
       <c r="J590" s="7"/>
     </row>
-    <row r="591" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C591" s="7"/>
       <c r="J591" s="7"/>
     </row>
-    <row r="592" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C592" s="7"/>
       <c r="J592" s="7"/>
     </row>
-    <row r="593" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C593" s="7"/>
       <c r="J593" s="7"/>
     </row>
-    <row r="594" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C594" s="7"/>
       <c r="J594" s="7"/>
     </row>
-    <row r="595" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C595" s="7"/>
       <c r="J595" s="7"/>
     </row>
-    <row r="596" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C596" s="7"/>
       <c r="J596" s="7"/>
     </row>
-    <row r="597" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C597" s="7"/>
       <c r="J597" s="7"/>
     </row>
-    <row r="598" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C598" s="7"/>
       <c r="J598" s="7"/>
     </row>
-    <row r="599" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C599" s="7"/>
       <c r="J599" s="7"/>
     </row>
-    <row r="600" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C600" s="7"/>
       <c r="J600" s="7"/>
     </row>
-    <row r="601" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C601" s="7"/>
       <c r="J601" s="7"/>
     </row>
-    <row r="602" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C602" s="7"/>
       <c r="J602" s="7"/>
     </row>
-    <row r="603" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C603" s="7"/>
       <c r="J603" s="7"/>
     </row>
-    <row r="604" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C604" s="7"/>
       <c r="J604" s="7"/>
     </row>
-    <row r="605" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C605" s="7"/>
       <c r="J605" s="7"/>
     </row>
-    <row r="606" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C606" s="7"/>
       <c r="J606" s="7"/>
     </row>
-    <row r="607" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C607" s="7"/>
       <c r="J607" s="7"/>
     </row>
-    <row r="608" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C608" s="7"/>
       <c r="J608" s="7"/>
     </row>
-    <row r="609" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C609" s="7"/>
       <c r="J609" s="7"/>
     </row>
-    <row r="610" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C610" s="7"/>
       <c r="J610" s="7"/>
     </row>
-    <row r="611" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C611" s="7"/>
       <c r="J611" s="7"/>
     </row>
-    <row r="612" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C612" s="7"/>
       <c r="J612" s="7"/>
     </row>
-    <row r="613" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C613" s="7"/>
       <c r="J613" s="7"/>
     </row>
-    <row r="614" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C614" s="7"/>
       <c r="J614" s="7"/>
     </row>
-    <row r="615" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C615" s="7"/>
       <c r="J615" s="7"/>
     </row>
-    <row r="616" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C616" s="7"/>
       <c r="J616" s="7"/>
     </row>
-    <row r="617" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C617" s="7"/>
       <c r="J617" s="7"/>
     </row>
-    <row r="618" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C618" s="7"/>
       <c r="J618" s="7"/>
     </row>
-    <row r="619" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C619" s="7"/>
       <c r="J619" s="7"/>
     </row>
-    <row r="620" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C620" s="7"/>
       <c r="J620" s="7"/>
     </row>
-    <row r="621" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C621" s="7"/>
       <c r="J621" s="7"/>
     </row>
-    <row r="622" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C622" s="7"/>
       <c r="J622" s="7"/>
     </row>
-    <row r="623" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C623" s="7"/>
       <c r="J623" s="7"/>
     </row>
-    <row r="624" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C624" s="7"/>
       <c r="J624" s="7"/>
     </row>
-    <row r="625" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C625" s="7"/>
       <c r="J625" s="7"/>
     </row>
-    <row r="626" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C626" s="7"/>
       <c r="J626" s="7"/>
     </row>
-    <row r="627" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C627" s="7"/>
       <c r="J627" s="7"/>
     </row>
-    <row r="628" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C628" s="7"/>
       <c r="J628" s="7"/>
     </row>
-    <row r="629" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C629" s="7"/>
       <c r="J629" s="7"/>
     </row>
-    <row r="630" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C630" s="7"/>
       <c r="J630" s="7"/>
     </row>
-    <row r="631" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C631" s="7"/>
       <c r="J631" s="7"/>
     </row>
-    <row r="632" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C632" s="7"/>
       <c r="J632" s="7"/>
     </row>
-    <row r="633" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C633" s="7"/>
       <c r="J633" s="7"/>
     </row>
-    <row r="634" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C634" s="7"/>
       <c r="J634" s="7"/>
     </row>
-    <row r="635" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C635" s="7"/>
       <c r="J635" s="7"/>
     </row>
-    <row r="636" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C636" s="7"/>
       <c r="J636" s="7"/>
     </row>
-    <row r="637" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C637" s="7"/>
       <c r="J637" s="7"/>
     </row>
-    <row r="638" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C638" s="7"/>
       <c r="J638" s="7"/>
     </row>
-    <row r="639" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C639" s="7"/>
       <c r="J639" s="7"/>
     </row>
-    <row r="640" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C640" s="7"/>
       <c r="J640" s="7"/>
     </row>
-    <row r="641" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C641" s="7"/>
       <c r="J641" s="7"/>
     </row>
-    <row r="642" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C642" s="7"/>
       <c r="J642" s="7"/>
     </row>
-    <row r="643" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C643" s="7"/>
       <c r="J643" s="7"/>
     </row>
-    <row r="644" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C644" s="7"/>
       <c r="J644" s="7"/>
     </row>
-    <row r="645" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C645" s="7"/>
       <c r="J645" s="7"/>
     </row>
-    <row r="646" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C646" s="7"/>
       <c r="J646" s="7"/>
     </row>
-    <row r="647" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C647" s="7"/>
       <c r="J647" s="7"/>
     </row>
-    <row r="648" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C648" s="7"/>
       <c r="J648" s="7"/>
     </row>
-    <row r="649" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C649" s="7"/>
       <c r="J649" s="7"/>
     </row>
-    <row r="650" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C650" s="7"/>
       <c r="J650" s="7"/>
     </row>
-    <row r="651" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C651" s="7"/>
       <c r="J651" s="7"/>
     </row>
-    <row r="652" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C652" s="7"/>
       <c r="J652" s="7"/>
     </row>
-    <row r="653" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C653" s="7"/>
       <c r="J653" s="7"/>
     </row>
-    <row r="654" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C654" s="7"/>
       <c r="J654" s="7"/>
     </row>
-    <row r="655" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C655" s="7"/>
       <c r="J655" s="7"/>
     </row>
-    <row r="656" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C656" s="7"/>
       <c r="J656" s="7"/>
     </row>
-    <row r="657" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C657" s="7"/>
       <c r="J657" s="7"/>
     </row>
-    <row r="658" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C658" s="7"/>
       <c r="J658" s="7"/>
     </row>
-    <row r="659" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C659" s="7"/>
       <c r="J659" s="7"/>
     </row>
-    <row r="660" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C660" s="7"/>
       <c r="J660" s="7"/>
     </row>
-    <row r="661" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C661" s="7"/>
       <c r="J661" s="7"/>
     </row>
-    <row r="662" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C662" s="7"/>
       <c r="J662" s="7"/>
     </row>
-    <row r="663" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C663" s="7"/>
       <c r="J663" s="7"/>
     </row>
-    <row r="664" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C664" s="7"/>
       <c r="J664" s="7"/>
     </row>
-    <row r="665" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C665" s="7"/>
       <c r="J665" s="7"/>
     </row>
-    <row r="666" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C666" s="7"/>
       <c r="J666" s="7"/>
     </row>
-    <row r="667" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C667" s="7"/>
       <c r="J667" s="7"/>
     </row>
-    <row r="668" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C668" s="7"/>
       <c r="J668" s="7"/>
     </row>
-    <row r="669" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C669" s="7"/>
       <c r="J669" s="7"/>
     </row>
-    <row r="670" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C670" s="7"/>
       <c r="J670" s="7"/>
     </row>
-    <row r="671" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C671" s="7"/>
       <c r="J671" s="7"/>
     </row>
-    <row r="672" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C672" s="7"/>
       <c r="J672" s="7"/>
     </row>
-    <row r="673" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C673" s="7"/>
       <c r="J673" s="7"/>
     </row>
-    <row r="674" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C674" s="7"/>
       <c r="J674" s="7"/>
     </row>
-    <row r="675" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C675" s="7"/>
       <c r="J675" s="7"/>
     </row>
-    <row r="676" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C676" s="7"/>
       <c r="J676" s="7"/>
     </row>
-    <row r="677" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C677" s="7"/>
       <c r="J677" s="7"/>
     </row>
-    <row r="678" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C678" s="7"/>
       <c r="J678" s="7"/>
     </row>
-    <row r="679" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C679" s="7"/>
       <c r="J679" s="7"/>
     </row>
-    <row r="680" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C680" s="7"/>
       <c r="J680" s="7"/>
     </row>
-    <row r="681" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C681" s="7"/>
       <c r="J681" s="7"/>
     </row>
-    <row r="682" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C682" s="7"/>
       <c r="J682" s="7"/>
     </row>
-    <row r="683" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C683" s="7"/>
       <c r="J683" s="7"/>
     </row>
-    <row r="684" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C684" s="7"/>
       <c r="J684" s="7"/>
     </row>
-    <row r="685" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C685" s="7"/>
       <c r="J685" s="7"/>
     </row>
-    <row r="686" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C686" s="7"/>
       <c r="J686" s="7"/>
     </row>
-    <row r="687" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C687" s="7"/>
       <c r="J687" s="7"/>
     </row>
-    <row r="688" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C688" s="7"/>
       <c r="J688" s="7"/>
     </row>
-    <row r="689" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C689" s="7"/>
       <c r="J689" s="7"/>
     </row>
-    <row r="690" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C690" s="7"/>
       <c r="J690" s="7"/>
     </row>
-    <row r="691" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C691" s="7"/>
       <c r="J691" s="7"/>
     </row>
-    <row r="692" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C692" s="7"/>
       <c r="J692" s="7"/>
     </row>
-    <row r="693" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C693" s="7"/>
       <c r="J693" s="7"/>
     </row>
-    <row r="694" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C694" s="7"/>
       <c r="J694" s="7"/>
     </row>
-    <row r="695" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C695" s="7"/>
       <c r="J695" s="7"/>
     </row>
-    <row r="696" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C696" s="7"/>
       <c r="J696" s="7"/>
     </row>
-    <row r="697" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C697" s="7"/>
       <c r="J697" s="7"/>
     </row>
-    <row r="698" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C698" s="7"/>
       <c r="J698" s="7"/>
     </row>
-    <row r="699" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C699" s="7"/>
       <c r="J699" s="7"/>
     </row>
-    <row r="700" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C700" s="7"/>
       <c r="J700" s="7"/>
     </row>
-    <row r="701" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C701" s="7"/>
       <c r="J701" s="7"/>
     </row>
-    <row r="702" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C702" s="7"/>
       <c r="J702" s="7"/>
     </row>
-    <row r="703" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C703" s="7"/>
       <c r="J703" s="7"/>
     </row>
-    <row r="704" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C704" s="7"/>
       <c r="J704" s="7"/>
     </row>
-    <row r="705" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C705" s="7"/>
       <c r="J705" s="7"/>
     </row>
-    <row r="706" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C706" s="7"/>
       <c r="J706" s="7"/>
     </row>
-    <row r="707" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C707" s="7"/>
       <c r="J707" s="7"/>
     </row>
-    <row r="708" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C708" s="7"/>
       <c r="J708" s="7"/>
     </row>
-    <row r="709" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C709" s="7"/>
       <c r="J709" s="7"/>
     </row>
-    <row r="710" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C710" s="7"/>
       <c r="J710" s="7"/>
     </row>
-    <row r="711" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C711" s="7"/>
       <c r="J711" s="7"/>
     </row>
-    <row r="712" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C712" s="7"/>
       <c r="J712" s="7"/>
     </row>
-    <row r="713" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C713" s="7"/>
       <c r="J713" s="7"/>
     </row>
-    <row r="714" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C714" s="7"/>
       <c r="J714" s="7"/>
     </row>
-    <row r="715" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C715" s="7"/>
       <c r="J715" s="7"/>
     </row>
-    <row r="716" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C716" s="7"/>
       <c r="J716" s="7"/>
     </row>
-    <row r="717" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C717" s="7"/>
       <c r="J717" s="7"/>
     </row>
-    <row r="718" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C718" s="7"/>
       <c r="J718" s="7"/>
     </row>
-    <row r="719" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C719" s="7"/>
       <c r="J719" s="7"/>
     </row>
-    <row r="720" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C720" s="7"/>
       <c r="J720" s="7"/>
     </row>
-    <row r="721" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C721" s="7"/>
       <c r="J721" s="7"/>
     </row>
-    <row r="722" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C722" s="7"/>
       <c r="J722" s="7"/>
     </row>
-    <row r="723" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C723" s="7"/>
       <c r="J723" s="7"/>
     </row>
-    <row r="724" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C724" s="7"/>
       <c r="J724" s="7"/>
     </row>
-    <row r="725" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C725" s="7"/>
       <c r="J725" s="7"/>
     </row>
-    <row r="726" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C726" s="7"/>
       <c r="J726" s="7"/>
     </row>
-    <row r="727" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C727" s="7"/>
       <c r="J727" s="7"/>
     </row>
-    <row r="728" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C728" s="7"/>
       <c r="J728" s="7"/>
     </row>
-    <row r="729" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C729" s="7"/>
       <c r="J729" s="7"/>
     </row>
-    <row r="730" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C730" s="7"/>
       <c r="J730" s="7"/>
     </row>
-    <row r="731" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C731" s="7"/>
       <c r="J731" s="7"/>
     </row>
-    <row r="732" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C732" s="7"/>
       <c r="J732" s="7"/>
     </row>
-    <row r="733" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C733" s="7"/>
       <c r="J733" s="7"/>
     </row>
-    <row r="734" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C734" s="7"/>
       <c r="J734" s="7"/>
     </row>
-    <row r="735" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C735" s="7"/>
       <c r="J735" s="7"/>
     </row>
-    <row r="736" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C736" s="7"/>
       <c r="J736" s="7"/>
     </row>
-    <row r="737" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C737" s="7"/>
       <c r="J737" s="7"/>
     </row>
-    <row r="738" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C738" s="7"/>
       <c r="J738" s="7"/>
     </row>
-    <row r="739" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C739" s="7"/>
       <c r="J739" s="7"/>
     </row>
-    <row r="740" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C740" s="7"/>
       <c r="J740" s="7"/>
     </row>
-    <row r="741" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C741" s="7"/>
       <c r="J741" s="7"/>
     </row>
-    <row r="742" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C742" s="7"/>
       <c r="J742" s="7"/>
     </row>
-    <row r="743" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C743" s="7"/>
       <c r="J743" s="7"/>
     </row>
-    <row r="744" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C744" s="7"/>
       <c r="J744" s="7"/>
     </row>
-    <row r="745" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C745" s="7"/>
       <c r="J745" s="7"/>
     </row>
-    <row r="746" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C746" s="7"/>
       <c r="J746" s="7"/>
     </row>
-    <row r="747" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C747" s="7"/>
       <c r="J747" s="7"/>
     </row>
-    <row r="748" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C748" s="7"/>
       <c r="J748" s="7"/>
     </row>
-    <row r="749" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C749" s="7"/>
       <c r="J749" s="7"/>
     </row>
-    <row r="750" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C750" s="7"/>
       <c r="J750" s="7"/>
     </row>
-    <row r="751" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C751" s="7"/>
       <c r="J751" s="7"/>
     </row>
-    <row r="752" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C752" s="7"/>
       <c r="J752" s="7"/>
     </row>
-    <row r="753" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C753" s="7"/>
       <c r="J753" s="7"/>
     </row>
-    <row r="754" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C754" s="7"/>
       <c r="J754" s="7"/>
     </row>
-    <row r="755" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C755" s="7"/>
       <c r="J755" s="7"/>
     </row>
-    <row r="756" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C756" s="7"/>
       <c r="J756" s="7"/>
     </row>
-    <row r="757" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C757" s="7"/>
       <c r="J757" s="7"/>
     </row>
-    <row r="758" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C758" s="7"/>
       <c r="J758" s="7"/>
     </row>
-    <row r="759" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C759" s="7"/>
       <c r="J759" s="7"/>
     </row>
-    <row r="760" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C760" s="7"/>
       <c r="J760" s="7"/>
     </row>
-    <row r="761" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C761" s="7"/>
       <c r="J761" s="7"/>
     </row>
-    <row r="762" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C762" s="7"/>
       <c r="J762" s="7"/>
     </row>
-    <row r="763" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C763" s="7"/>
       <c r="J763" s="7"/>
     </row>
-    <row r="764" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C764" s="7"/>
       <c r="J764" s="7"/>
     </row>
-    <row r="765" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C765" s="7"/>
       <c r="J765" s="7"/>
     </row>
-    <row r="766" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C766" s="7"/>
       <c r="J766" s="7"/>
     </row>
-    <row r="767" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C767" s="7"/>
       <c r="J767" s="7"/>
     </row>
-    <row r="768" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C768" s="7"/>
       <c r="J768" s="7"/>
     </row>
-    <row r="769" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C769" s="7"/>
       <c r="J769" s="7"/>
     </row>
-    <row r="770" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C770" s="7"/>
       <c r="J770" s="7"/>
     </row>
-    <row r="771" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C771" s="7"/>
       <c r="J771" s="7"/>
     </row>
-    <row r="772" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C772" s="7"/>
       <c r="J772" s="7"/>
     </row>
-    <row r="773" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C773" s="7"/>
       <c r="J773" s="7"/>
     </row>
-    <row r="774" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C774" s="7"/>
       <c r="J774" s="7"/>
     </row>
-    <row r="775" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C775" s="7"/>
       <c r="J775" s="7"/>
     </row>
-    <row r="776" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C776" s="7"/>
       <c r="J776" s="7"/>
     </row>
-    <row r="777" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C777" s="7"/>
       <c r="J777" s="7"/>
     </row>
-    <row r="778" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C778" s="7"/>
       <c r="J778" s="7"/>
     </row>
-    <row r="779" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C779" s="7"/>
       <c r="J779" s="7"/>
     </row>
-    <row r="780" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C780" s="7"/>
       <c r="J780" s="7"/>
     </row>
-    <row r="781" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C781" s="7"/>
       <c r="J781" s="7"/>
     </row>
-    <row r="782" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C782" s="7"/>
       <c r="J782" s="7"/>
     </row>
-    <row r="783" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C783" s="7"/>
       <c r="J783" s="7"/>
     </row>
-    <row r="784" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C784" s="7"/>
       <c r="J784" s="7"/>
     </row>
-    <row r="785" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C785" s="7"/>
       <c r="J785" s="7"/>
     </row>
-    <row r="786" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C786" s="7"/>
       <c r="J786" s="7"/>
     </row>
-    <row r="787" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C787" s="7"/>
       <c r="J787" s="7"/>
     </row>
-    <row r="788" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C788" s="7"/>
       <c r="J788" s="7"/>
     </row>
-    <row r="789" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C789" s="7"/>
       <c r="J789" s="7"/>
     </row>
-    <row r="790" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C790" s="7"/>
       <c r="J790" s="7"/>
     </row>
-    <row r="791" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C791" s="7"/>
       <c r="J791" s="7"/>
     </row>
-    <row r="792" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C792" s="7"/>
       <c r="J792" s="7"/>
     </row>
-    <row r="793" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C793" s="7"/>
       <c r="J793" s="7"/>
     </row>
-    <row r="794" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C794" s="7"/>
       <c r="J794" s="7"/>
     </row>
-    <row r="795" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C795" s="7"/>
       <c r="J795" s="7"/>
     </row>
-    <row r="796" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C796" s="7"/>
       <c r="J796" s="7"/>
     </row>
-    <row r="797" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C797" s="7"/>
       <c r="J797" s="7"/>
     </row>
-    <row r="798" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C798" s="7"/>
       <c r="J798" s="7"/>
     </row>
-    <row r="799" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C799" s="7"/>
       <c r="J799" s="7"/>
     </row>
-    <row r="800" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C800" s="7"/>
       <c r="J800" s="7"/>
     </row>
-    <row r="801" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C801" s="7"/>
       <c r="J801" s="7"/>
     </row>
-    <row r="802" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C802" s="7"/>
       <c r="J802" s="7"/>
     </row>
-    <row r="803" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C803" s="7"/>
       <c r="J803" s="7"/>
     </row>
-    <row r="804" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C804" s="7"/>
       <c r="J804" s="7"/>
     </row>
-    <row r="805" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C805" s="7"/>
       <c r="J805" s="7"/>
     </row>
-    <row r="806" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C806" s="7"/>
       <c r="J806" s="7"/>
     </row>
-    <row r="807" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C807" s="7"/>
       <c r="J807" s="7"/>
     </row>
-    <row r="808" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C808" s="7"/>
       <c r="J808" s="7"/>
     </row>
-    <row r="809" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C809" s="7"/>
       <c r="J809" s="7"/>
     </row>
-    <row r="810" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C810" s="7"/>
       <c r="J810" s="7"/>
     </row>
-    <row r="811" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C811" s="7"/>
       <c r="J811" s="7"/>
     </row>
-    <row r="812" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C812" s="7"/>
       <c r="J812" s="7"/>
     </row>
-    <row r="813" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C813" s="7"/>
       <c r="J813" s="7"/>
     </row>
-    <row r="814" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C814" s="7"/>
       <c r="J814" s="7"/>
     </row>
-    <row r="815" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C815" s="7"/>
       <c r="J815" s="7"/>
     </row>
-    <row r="816" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C816" s="7"/>
       <c r="J816" s="7"/>
     </row>
-    <row r="817" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C817" s="7"/>
       <c r="J817" s="7"/>
     </row>
-    <row r="818" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C818" s="7"/>
       <c r="J818" s="7"/>
     </row>
-    <row r="819" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C819" s="7"/>
       <c r="J819" s="7"/>
     </row>
-    <row r="820" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C820" s="7"/>
       <c r="J820" s="7"/>
     </row>
-    <row r="821" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C821" s="7"/>
       <c r="J821" s="7"/>
     </row>
-    <row r="822" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C822" s="7"/>
       <c r="J822" s="7"/>
     </row>
-    <row r="823" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C823" s="7"/>
       <c r="J823" s="7"/>
     </row>
-    <row r="824" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C824" s="7"/>
       <c r="J824" s="7"/>
     </row>
-    <row r="825" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C825" s="7"/>
       <c r="J825" s="7"/>
     </row>
-    <row r="826" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C826" s="7"/>
       <c r="J826" s="7"/>
     </row>
-    <row r="827" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C827" s="7"/>
       <c r="J827" s="7"/>
     </row>
-    <row r="828" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C828" s="7"/>
       <c r="J828" s="7"/>
     </row>
-    <row r="829" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C829" s="7"/>
       <c r="J829" s="7"/>
     </row>
-    <row r="830" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C830" s="7"/>
       <c r="J830" s="7"/>
     </row>
-    <row r="831" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C831" s="7"/>
       <c r="J831" s="7"/>
     </row>
-    <row r="832" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C832" s="7"/>
       <c r="J832" s="7"/>
     </row>
-    <row r="833" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C833" s="7"/>
       <c r="J833" s="7"/>
     </row>
-    <row r="834" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C834" s="7"/>
       <c r="J834" s="7"/>
     </row>
-    <row r="835" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C835" s="7"/>
       <c r="J835" s="7"/>
     </row>
-    <row r="836" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C836" s="7"/>
       <c r="J836" s="7"/>
     </row>
-    <row r="837" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C837" s="7"/>
       <c r="J837" s="7"/>
     </row>
-    <row r="838" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C838" s="7"/>
       <c r="J838" s="7"/>
     </row>
-    <row r="839" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C839" s="7"/>
       <c r="J839" s="7"/>
     </row>
-    <row r="840" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C840" s="7"/>
       <c r="J840" s="7"/>
     </row>
-    <row r="841" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C841" s="7"/>
       <c r="J841" s="7"/>
     </row>
-    <row r="842" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C842" s="7"/>
       <c r="J842" s="7"/>
     </row>
-    <row r="843" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C843" s="7"/>
       <c r="J843" s="7"/>
     </row>
-    <row r="844" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C844" s="7"/>
       <c r="J844" s="7"/>
     </row>
-    <row r="845" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C845" s="7"/>
       <c r="J845" s="7"/>
     </row>
-    <row r="846" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C846" s="7"/>
       <c r="J846" s="7"/>
     </row>
-    <row r="847" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C847" s="7"/>
       <c r="J847" s="7"/>
     </row>
-    <row r="848" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C848" s="7"/>
       <c r="J848" s="7"/>
     </row>
-    <row r="849" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C849" s="7"/>
       <c r="J849" s="7"/>
     </row>
-    <row r="850" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C850" s="7"/>
       <c r="J850" s="7"/>
     </row>
-    <row r="851" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C851" s="7"/>
       <c r="J851" s="7"/>
     </row>
-    <row r="852" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C852" s="7"/>
       <c r="J852" s="7"/>
     </row>
-    <row r="853" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C853" s="7"/>
       <c r="J853" s="7"/>
     </row>
-    <row r="854" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C854" s="7"/>
       <c r="J854" s="7"/>
     </row>
-    <row r="855" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C855" s="7"/>
       <c r="J855" s="7"/>
     </row>
-    <row r="856" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C856" s="7"/>
       <c r="J856" s="7"/>
     </row>
-    <row r="857" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C857" s="7"/>
       <c r="J857" s="7"/>
     </row>
-    <row r="858" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C858" s="7"/>
       <c r="J858" s="7"/>
     </row>
-    <row r="859" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C859" s="7"/>
       <c r="J859" s="7"/>
     </row>
-    <row r="860" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C860" s="7"/>
       <c r="J860" s="7"/>
     </row>
-    <row r="861" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C861" s="7"/>
       <c r="J861" s="7"/>
     </row>
-    <row r="862" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C862" s="7"/>
       <c r="J862" s="7"/>
     </row>
-    <row r="863" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C863" s="7"/>
       <c r="J863" s="7"/>
     </row>
-    <row r="864" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C864" s="7"/>
       <c r="J864" s="7"/>
     </row>
-    <row r="865" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C865" s="7"/>
       <c r="J865" s="7"/>
     </row>
-    <row r="866" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C866" s="7"/>
       <c r="J866" s="7"/>
     </row>
-    <row r="867" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C867" s="7"/>
       <c r="J867" s="7"/>
     </row>
-    <row r="868" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C868" s="7"/>
       <c r="J868" s="7"/>
     </row>
-    <row r="869" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C869" s="7"/>
       <c r="J869" s="7"/>
     </row>
-    <row r="870" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C870" s="7"/>
       <c r="J870" s="7"/>
     </row>
-    <row r="871" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C871" s="7"/>
       <c r="J871" s="7"/>
     </row>
-    <row r="872" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C872" s="7"/>
       <c r="J872" s="7"/>
     </row>
-    <row r="873" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C873" s="7"/>
       <c r="J873" s="7"/>
     </row>
-    <row r="874" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C874" s="7"/>
       <c r="J874" s="7"/>
     </row>
-    <row r="875" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C875" s="7"/>
       <c r="J875" s="7"/>
     </row>
-    <row r="876" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C876" s="7"/>
       <c r="J876" s="7"/>
     </row>
-    <row r="877" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C877" s="7"/>
       <c r="J877" s="7"/>
     </row>
-    <row r="878" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C878" s="7"/>
       <c r="J878" s="7"/>
     </row>
-    <row r="879" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C879" s="7"/>
       <c r="J879" s="7"/>
     </row>
-    <row r="880" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C880" s="7"/>
       <c r="J880" s="7"/>
     </row>
-    <row r="881" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C881" s="7"/>
       <c r="J881" s="7"/>
     </row>
-    <row r="882" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C882" s="7"/>
       <c r="J882" s="7"/>
     </row>
-    <row r="883" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C883" s="7"/>
       <c r="J883" s="7"/>
     </row>
-    <row r="884" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C884" s="7"/>
       <c r="J884" s="7"/>
     </row>
-    <row r="885" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C885" s="7"/>
       <c r="J885" s="7"/>
     </row>
-    <row r="886" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C886" s="7"/>
       <c r="J886" s="7"/>
     </row>
-    <row r="887" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C887" s="7"/>
       <c r="J887" s="7"/>
     </row>
-    <row r="888" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C888" s="7"/>
       <c r="J888" s="7"/>
     </row>
-    <row r="889" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C889" s="7"/>
       <c r="J889" s="7"/>
     </row>
-    <row r="890" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C890" s="7"/>
       <c r="J890" s="7"/>
     </row>
-    <row r="891" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C891" s="7"/>
       <c r="J891" s="7"/>
     </row>
-    <row r="892" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C892" s="7"/>
       <c r="J892" s="7"/>
     </row>
-    <row r="893" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C893" s="7"/>
       <c r="J893" s="7"/>
     </row>
-    <row r="894" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C894" s="7"/>
       <c r="J894" s="7"/>
     </row>
-    <row r="895" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C895" s="7"/>
       <c r="J895" s="7"/>
     </row>
-    <row r="896" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C896" s="7"/>
       <c r="J896" s="7"/>
     </row>
-    <row r="897" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C897" s="7"/>
       <c r="J897" s="7"/>
     </row>
-    <row r="898" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C898" s="7"/>
       <c r="J898" s="7"/>
     </row>
-    <row r="899" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C899" s="7"/>
       <c r="J899" s="7"/>
     </row>
-    <row r="900" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C900" s="7"/>
       <c r="J900" s="7"/>
     </row>
-    <row r="901" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C901" s="7"/>
       <c r="J901" s="7"/>
     </row>
-    <row r="902" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C902" s="7"/>
       <c r="J902" s="7"/>
     </row>
-    <row r="903" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C903" s="7"/>
       <c r="J903" s="7"/>
     </row>
-    <row r="904" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C904" s="7"/>
       <c r="J904" s="7"/>
     </row>
-    <row r="905" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C905" s="7"/>
       <c r="J905" s="7"/>
     </row>
-    <row r="906" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C906" s="7"/>
       <c r="J906" s="7"/>
     </row>
-    <row r="907" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C907" s="7"/>
       <c r="J907" s="7"/>
     </row>
-    <row r="908" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C908" s="7"/>
       <c r="J908" s="7"/>
     </row>
-    <row r="909" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C909" s="7"/>
       <c r="J909" s="7"/>
     </row>
-    <row r="910" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C910" s="7"/>
       <c r="J910" s="7"/>
     </row>
-    <row r="911" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C911" s="7"/>
       <c r="J911" s="7"/>
     </row>
-    <row r="912" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C912" s="7"/>
       <c r="J912" s="7"/>
     </row>
-    <row r="913" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C913" s="7"/>
       <c r="J913" s="7"/>
     </row>
-    <row r="914" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C914" s="7"/>
       <c r="J914" s="7"/>
     </row>
-    <row r="915" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C915" s="7"/>
       <c r="J915" s="7"/>
     </row>
-    <row r="916" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C916" s="7"/>
       <c r="J916" s="7"/>
     </row>
-    <row r="917" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C917" s="7"/>
       <c r="J917" s="7"/>
     </row>
-    <row r="918" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C918" s="7"/>
       <c r="J918" s="7"/>
     </row>
-    <row r="919" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C919" s="7"/>
       <c r="J919" s="7"/>
     </row>
-    <row r="920" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C920" s="7"/>
       <c r="J920" s="7"/>
     </row>
-    <row r="921" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C921" s="7"/>
       <c r="J921" s="7"/>
     </row>
-    <row r="922" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C922" s="7"/>
       <c r="J922" s="7"/>
     </row>
-    <row r="923" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C923" s="7"/>
       <c r="J923" s="7"/>
     </row>
-    <row r="924" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C924" s="7"/>
       <c r="J924" s="7"/>
     </row>
-    <row r="925" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C925" s="7"/>
       <c r="J925" s="7"/>
     </row>
-    <row r="926" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C926" s="7"/>
       <c r="J926" s="7"/>
     </row>
-    <row r="927" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C927" s="7"/>
       <c r="J927" s="7"/>
     </row>
-    <row r="928" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C928" s="7"/>
       <c r="J928" s="7"/>
     </row>
-    <row r="929" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C929" s="7"/>
       <c r="J929" s="7"/>
     </row>
-    <row r="930" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C930" s="7"/>
       <c r="J930" s="7"/>
     </row>
-    <row r="931" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C931" s="7"/>
       <c r="J931" s="7"/>
     </row>
-    <row r="932" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C932" s="7"/>
       <c r="J932" s="7"/>
     </row>
-    <row r="933" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C933" s="7"/>
       <c r="J933" s="7"/>
     </row>
-    <row r="934" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C934" s="7"/>
       <c r="J934" s="7"/>
     </row>
-    <row r="935" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C935" s="7"/>
       <c r="J935" s="7"/>
     </row>
-    <row r="936" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C936" s="7"/>
       <c r="J936" s="7"/>
     </row>
-    <row r="937" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C937" s="7"/>
       <c r="J937" s="7"/>
     </row>
-    <row r="938" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C938" s="7"/>
       <c r="J938" s="7"/>
     </row>
-    <row r="939" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C939" s="7"/>
       <c r="J939" s="7"/>
     </row>
-    <row r="940" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C940" s="7"/>
       <c r="J940" s="7"/>
     </row>
-    <row r="941" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C941" s="7"/>
       <c r="J941" s="7"/>
     </row>
-    <row r="942" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C942" s="7"/>
       <c r="J942" s="7"/>
     </row>
-    <row r="943" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C943" s="7"/>
       <c r="J943" s="7"/>
     </row>
-    <row r="944" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C944" s="7"/>
       <c r="J944" s="7"/>
     </row>
-    <row r="945" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C945" s="7"/>
       <c r="J945" s="7"/>
     </row>
-    <row r="946" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C946" s="7"/>
       <c r="J946" s="7"/>
     </row>
-    <row r="947" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C947" s="7"/>
       <c r="J947" s="7"/>
     </row>
-    <row r="948" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C948" s="7"/>
       <c r="J948" s="7"/>
     </row>
-    <row r="949" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C949" s="7"/>
       <c r="J949" s="7"/>
     </row>
-    <row r="950" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C950" s="7"/>
       <c r="J950" s="7"/>
     </row>
-    <row r="951" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C951" s="7"/>
       <c r="J951" s="7"/>
     </row>
-    <row r="952" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C952" s="7"/>
       <c r="J952" s="7"/>
     </row>
-    <row r="953" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C953" s="7"/>
       <c r="J953" s="7"/>
     </row>
-    <row r="954" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C954" s="7"/>
       <c r="J954" s="7"/>
     </row>
-    <row r="955" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C955" s="7"/>
       <c r="J955" s="7"/>
     </row>
-    <row r="956" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C956" s="7"/>
       <c r="J956" s="7"/>
     </row>
-    <row r="957" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C957" s="7"/>
       <c r="J957" s="7"/>
     </row>
-    <row r="958" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C958" s="7"/>
       <c r="J958" s="7"/>
     </row>
-    <row r="959" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C959" s="7"/>
       <c r="J959" s="7"/>
     </row>
-    <row r="960" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C960" s="7"/>
       <c r="J960" s="7"/>
     </row>
-    <row r="961" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C961" s="7"/>
       <c r="J961" s="7"/>
     </row>
-    <row r="962" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C962" s="7"/>
       <c r="J962" s="7"/>
     </row>
-    <row r="963" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C963" s="7"/>
       <c r="J963" s="7"/>
     </row>
-    <row r="964" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C964" s="7"/>
       <c r="J964" s="7"/>
     </row>
-    <row r="965" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C965" s="7"/>
       <c r="J965" s="7"/>
     </row>
-    <row r="966" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C966" s="7"/>
       <c r="J966" s="7"/>
     </row>
-    <row r="967" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C967" s="7"/>
       <c r="J967" s="7"/>
     </row>
-    <row r="968" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C968" s="7"/>
       <c r="J968" s="7"/>
     </row>
-    <row r="969" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C969" s="7"/>
       <c r="J969" s="7"/>
     </row>
-    <row r="970" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C970" s="7"/>
       <c r="J970" s="7"/>
     </row>
-    <row r="971" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C971" s="7"/>
       <c r="J971" s="7"/>
     </row>
-    <row r="972" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C972" s="7"/>
       <c r="J972" s="7"/>
     </row>
-    <row r="973" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C973" s="7"/>
       <c r="J973" s="7"/>
     </row>
-    <row r="974" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C974" s="7"/>
       <c r="J974" s="7"/>
     </row>
-    <row r="975" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C975" s="7"/>
       <c r="J975" s="7"/>
     </row>
-    <row r="976" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C976" s="7"/>
       <c r="J976" s="7"/>
     </row>
-    <row r="977" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C977" s="7"/>
       <c r="J977" s="7"/>
     </row>
-    <row r="978" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C978" s="7"/>
       <c r="J978" s="7"/>
     </row>
-    <row r="979" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C979" s="7"/>
       <c r="J979" s="7"/>
     </row>
-    <row r="980" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C980" s="7"/>
       <c r="J980" s="7"/>
     </row>
-    <row r="981" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C981" s="7"/>
       <c r="J981" s="7"/>
     </row>
-    <row r="982" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C982" s="7"/>
       <c r="J982" s="7"/>
     </row>
-    <row r="983" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C983" s="7"/>
       <c r="J983" s="7"/>
     </row>
-    <row r="984" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C984" s="7"/>
       <c r="J984" s="7"/>
     </row>
-    <row r="985" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C985" s="7"/>
       <c r="J985" s="7"/>
     </row>
-    <row r="986" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C986" s="7"/>
       <c r="J986" s="7"/>
     </row>
-    <row r="987" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C987" s="7"/>
       <c r="J987" s="7"/>
     </row>
-    <row r="988" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C988" s="7"/>
       <c r="J988" s="7"/>
     </row>
-    <row r="989" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C989" s="7"/>
       <c r="J989" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E5:G5"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -5520,15 +5522,16 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="1" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>